--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P34_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P34_trail11 Features.xlsx
@@ -4063,7 +4063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4074,29 +4074,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4117,115 +4115,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4242,72 +4230,66 @@
         <v>5.165630561853461e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.223397130426855</v>
+        <v>3.111755505359632e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.743529217960798</v>
+        <v>3.737023833040032e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.111755505359632e-07</v>
+        <v>-0.08403206184215412</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.737023833040032e-06</v>
+        <v>0.3397574930690982</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.08403206184215412</v>
+        <v>0.1223086453563958</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3397574930690982</v>
+        <v>1.792597755545301</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1223086453563958</v>
+        <v>1.696905550230463</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.718772619884106</v>
+        <v>3.530873635755679</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.696905550230463</v>
+        <v>3.527750109876923e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.530873635755679</v>
+        <v>63372942.73002324</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.527750109876923e-15</v>
+        <v>1.856679208792191e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>63372942.73002324</v>
+        <v>14.1679025910996</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.856679208792191e-06</v>
+        <v>0.000166715119543849</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>14.1679025910996</v>
+        <v>9.771475705291087</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.000166715119543849</v>
+        <v>1.204412603782564</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.771475705291087</v>
+        <v>0.01591824927474724</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.204412603782564</v>
+        <v>2.673073299639063</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01591824927474724</v>
+        <v>0.9583857892307911</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.673073299639063</v>
+        <v>1.703727015037167</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9583857892307911</v>
+        <v>9</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.703727015037167</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.164139435371248</v>
       </c>
     </row>
@@ -4322,72 +4304,66 @@
         <v>4.470129942001016e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.6121896319287594</v>
+        <v>2.369094280940805e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.374681507793643</v>
+        <v>3.733251039043212e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.369094280940805e-07</v>
+        <v>-0.07360962961648959</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.733251039043212e-06</v>
+        <v>0.3355728933813026</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.07360962961648959</v>
+        <v>0.1179011989918523</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3355728933813026</v>
+        <v>1.789509350561099</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1179011989918523</v>
+        <v>1.690573979915117</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.718346594002292</v>
+        <v>3.584826545564716</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.690573979915117</v>
+        <v>3.422361413270503e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.584826545564716</v>
+        <v>66269550.12210667</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.422361413270503e-15</v>
+        <v>1.772282488173172e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>66269550.12210667</v>
+        <v>15.02982470330074</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.772282488173172e-06</v>
+        <v>0.0001640064341139842</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>15.02982470330074</v>
+        <v>8.790164112652786</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001640064341139842</v>
+        <v>1.304812248185621</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.790164112652786</v>
+        <v>0.01267228270547803</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.304812248185621</v>
+        <v>2.758104423877723</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01267228270547803</v>
+        <v>0.9559522570845539</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.758104423877723</v>
+        <v>1.709529537525694</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9559522570845539</v>
+        <v>18</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.709529537525694</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1627008963187649</v>
       </c>
     </row>
@@ -4402,72 +4378,66 @@
         <v>4.093950551555387e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.300618348151227</v>
+        <v>1.861071803604731e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.6277357673635064</v>
+        <v>3.730325201764382e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.861071803604731e-07</v>
+        <v>-0.06402991290878833</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.730325201764382e-06</v>
+        <v>0.3341663607663026</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.06402991290878833</v>
+        <v>0.1156988283933077</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3341663607663026</v>
+        <v>1.788234171317575</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1156988283933077</v>
+        <v>1.668808790072343</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.717876495061506</v>
+        <v>3.65102824066848</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.668808790072343</v>
+        <v>3.299375763916904e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.65102824066848</v>
+        <v>68448848.10304329</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.299375763916904e-15</v>
+        <v>1.713414767832764e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>68448848.10304329</v>
+        <v>15.45838316302409</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.713414767832764e-06</v>
+        <v>0.000166798689721839</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>15.45838316302409</v>
+        <v>8.80690458315209</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000166798689721839</v>
+        <v>1.311315469870562</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.80690458315209</v>
+        <v>0.01293716797133999</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.311315469870562</v>
+        <v>2.73860628722752</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01293716797133999</v>
+        <v>0.9559520638315329</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.73860628722752</v>
+        <v>1.700429209122652</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9559520638315329</v>
+        <v>18</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.700429209122652</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1640057319712706</v>
       </c>
     </row>
@@ -4482,72 +4452,66 @@
         <v>3.903014925446224e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.2025966605933556</v>
+        <v>1.535722124677643e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.9088144848695605</v>
+        <v>3.727924232726317e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.535722124677643e-07</v>
+        <v>-0.05695750439496285</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.727924232726317e-06</v>
+        <v>0.3363012787343867</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.05695750439496285</v>
+        <v>0.1163142811206378</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3363012787343867</v>
+        <v>1.793845086166538</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1163142811206378</v>
+        <v>1.635216185440189</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.718239195276051</v>
+        <v>3.751663727551112</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.635216185440189</v>
+        <v>3.124743372351006e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.751663727551112</v>
+        <v>70734786.82820429</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.124743372351006e-15</v>
+        <v>1.659840769176147e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>70734786.82820429</v>
+        <v>15.63437244798584</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.659840769176147e-06</v>
+        <v>0.0001775258802753444</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>15.63437244798584</v>
+        <v>10.20395449019889</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001775258802753444</v>
+        <v>1.19897951493315</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.20395449019889</v>
+        <v>0.01848411665680866</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.19897951493315</v>
+        <v>2.551650690226104</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01848411665680866</v>
+        <v>0.9565469640283519</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.551650690226104</v>
+        <v>1.725504268206217</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9565469640283519</v>
+        <v>18</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.725504268206217</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.173153342126247</v>
       </c>
     </row>
@@ -4562,72 +4526,66 @@
         <v>3.8082121576059e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.2001191909123048</v>
+        <v>1.349099599372703e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.9508974107218311</v>
+        <v>3.725824487595636e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.349099599372703e-07</v>
+        <v>-0.05250705387775665</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.725824487595636e-06</v>
+        <v>0.3397693729701674</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.05250705387775665</v>
+        <v>0.1181900593933743</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3397693729701674</v>
+        <v>1.79150955429045</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.1181900593933743</v>
+        <v>1.609200345716048</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.71909226200707</v>
+        <v>3.858512708008604</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.609200345716048</v>
+        <v>2.807365934000194e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.858512708008604</v>
+        <v>78387765.54315676</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.807365934000194e-15</v>
+        <v>1.496384732718158e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>78387765.54315676</v>
+        <v>17.25025802903372</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.496384732718158e-06</v>
+        <v>0.0001919511307749462</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>17.25025802903372</v>
+        <v>10.79317488520058</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001919511307749462</v>
+        <v>1.169854008203906</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.79317488520058</v>
+        <v>0.02236089092342033</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.169854008203906</v>
+        <v>2.45140715363729</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02236089092342033</v>
+        <v>0.9570283160033255</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.45140715363729</v>
+        <v>1.729017240859716</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9570283160033255</v>
+        <v>18</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.729017240859716</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1733915149730255</v>
       </c>
     </row>
@@ -4642,72 +4600,66 @@
         <v>3.759197033062612e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.231940242122444</v>
+        <v>1.349099599372703e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.9260097637048368</v>
+        <v>3.723898101380645e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.349099599372703e-07</v>
+        <v>-0.04961838868696057</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.723898101380645e-06</v>
+        <v>0.3427484644510568</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.04961838868696057</v>
+        <v>0.1199361467305824</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.3427484644510568</v>
+        <v>1.825970137138893</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.1199361467305824</v>
+        <v>1.837145294225638</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.770324440387515</v>
+        <v>3.669297381271894</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.837145294225638</v>
+        <v>2.748666173742839e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.669297381271894</v>
+        <v>76768655.90850717</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.748666173742839e-15</v>
+        <v>1.539813203565495e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>76768655.90850717</v>
+        <v>16.19906215044626</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.539813203565495e-06</v>
+        <v>0.0001946754926847766</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>16.19906215044626</v>
+        <v>9.72533050698061</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001946754926847766</v>
+        <v>1.305207647624848</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.72533050698061</v>
+        <v>0.01841280785841164</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.305207647624848</v>
+        <v>2.592116643442085</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01841280785841164</v>
+        <v>0.9585316083884822</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.592116643442085</v>
+        <v>1.651391037922258</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9585316083884822</v>
+        <v>17</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.651391037922258</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1660876458115142</v>
       </c>
     </row>
@@ -4722,72 +4674,66 @@
         <v>3.724810292211203e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.275627442581842</v>
+        <v>1.349099599372703e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.8795738160230662</v>
+        <v>3.722073680637964e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.349099599372703e-07</v>
+        <v>-0.04822503606349694</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.722073680637964e-06</v>
+        <v>0.3458431444695716</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.04822503606349694</v>
+        <v>0.121933315982821</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.3458431444695716</v>
+        <v>1.847970868709811</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.121933315982821</v>
+        <v>1.629826533506676</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.805036896629024</v>
+        <v>3.953028697925913</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.629826533506676</v>
+        <v>2.368251850439637e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.953028697925913</v>
+        <v>88982578.16078401</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.368251850439637e-15</v>
+        <v>1.336485967557928e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>88982578.16078401</v>
+        <v>18.75157947021819</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.336485967557928e-06</v>
+        <v>0.0001690785689230788</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>18.75157947021819</v>
+        <v>9.382157509171043</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001690785689230788</v>
+        <v>1.255089890657936</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.382157509171043</v>
+        <v>0.01488312066003375</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.255089890657936</v>
+        <v>2.739883224630833</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01488312066003375</v>
+        <v>0.9577840150727461</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.739883224630833</v>
+        <v>1.604955895631304</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9577840150727461</v>
+        <v>17</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.604955895631304</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.190168309636004</v>
       </c>
     </row>
@@ -4802,72 +4748,66 @@
         <v>3.678029080946686e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.3194277744468172</v>
+        <v>1.349099599372703e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.8242239674481673</v>
+        <v>3.720274047053794e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.349099599372703e-07</v>
+        <v>-0.04929411394266085</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.720274047053794e-06</v>
+        <v>0.3500175933468231</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.04929411394266085</v>
+        <v>0.124940435314259</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.3500175933468231</v>
+        <v>1.844989440217446</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.124940435314259</v>
+        <v>1.674721191137175</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.806103322071875</v>
+        <v>4.28989761991602</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.674721191137175</v>
+        <v>1.526384517066449e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.28989761991602</v>
+        <v>144948445.5500674</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.526384517066449e-15</v>
+        <v>8.236169510087695e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>144948445.5500674</v>
+        <v>32.06941787313318</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>8.236169510087695e-07</v>
+        <v>0.0001529121653808886</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>32.06941787313318</v>
+        <v>9.587444650383263</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001529121653808886</v>
+        <v>1.178495440779336</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.587444650383263</v>
+        <v>0.01405554784470516</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.178495440779336</v>
+        <v>2.71868548206124</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01405554784470516</v>
+        <v>0.9587401022867175</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.71868548206124</v>
+        <v>1.607191546247085</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9587401022867175</v>
+        <v>17</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.607191546247085</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2253568790078317</v>
       </c>
     </row>
@@ -4882,72 +4822,66 @@
         <v>3.601353400803658e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.3520487613091711</v>
+        <v>1.349099599372703e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.775182903993219</v>
+        <v>3.718461207939951e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.349099599372703e-07</v>
+        <v>-0.04957011492313831</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.718461207939951e-06</v>
+        <v>0.3577286481864531</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.04957011492313831</v>
+        <v>0.1304256103498001</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.3577286481864531</v>
+        <v>1.845311804022987</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.1304256103498001</v>
+        <v>1.848734370935545</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.819706520380143</v>
+        <v>3.849548349352979</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.848734370935545</v>
+        <v>1.083143513548465e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.849548349352979</v>
+        <v>201722920.3205298</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.083143513548465e-15</v>
+        <v>5.914048889350383e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>201722920.3205298</v>
+        <v>44.07542379191774</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>5.914048889350383e-07</v>
+        <v>0.000153492369434479</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>44.07542379191774</v>
+        <v>8.968214090509866</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.000153492369434479</v>
+        <v>1.23483767655828</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.968214090509866</v>
+        <v>0.0123452169021729</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.23483767655828</v>
+        <v>2.813296731922976</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.0123452169021729</v>
+        <v>0.9583779358304099</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.813296731922976</v>
+        <v>1.575325417778042</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9583779358304099</v>
+        <v>17</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.575325417778042</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2326058462163624</v>
       </c>
     </row>
@@ -4962,72 +4896,66 @@
         <v>3.510018706293716e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.3842889556510582</v>
+        <v>1.349099599372703e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.7132530487346251</v>
+        <v>3.716770988457062e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.349099599372703e-07</v>
+        <v>-0.04439431852013966</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.716770988457062e-06</v>
+        <v>0.3678347396473333</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.04439431852013966</v>
+        <v>0.1372626314818686</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.3678347396473333</v>
+        <v>1.852713517334629</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.1372626314818686</v>
+        <v>2.056308197691699</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.837057855014056</v>
+        <v>3.926056816708365</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.056308197691699</v>
+        <v>1.041339638165877e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.926056816708365</v>
+        <v>210200600.7926953</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.041339638165877e-15</v>
+        <v>5.68249255916603e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>210200600.7926953</v>
+        <v>46.01085524121832</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>5.68249255916603e-07</v>
+        <v>0.0001706446631442775</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>46.01085524121832</v>
+        <v>8.621255505193213</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001706446631442775</v>
+        <v>1.37568968352271</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.621255505193213</v>
+        <v>0.01268334316541939</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.37568968352271</v>
+        <v>2.803309410422001</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01268334316541939</v>
+        <v>0.9577464649161567</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.803309410422001</v>
+        <v>1.532239325393874</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9577464649161567</v>
+        <v>12</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.532239325393874</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2401623601346697</v>
       </c>
     </row>
@@ -5042,72 +4970,66 @@
         <v>3.433255994358336e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.4361147349514509</v>
+        <v>1.349099599372703e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.595750192230601</v>
+        <v>3.715410823411158e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.349099599372703e-07</v>
+        <v>-0.03304242415462312</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.715410823411158e-06</v>
+        <v>0.3752226639264244</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.03304242415462312</v>
+        <v>0.1418583856611042</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.3752226639264244</v>
+        <v>1.866198047896887</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.1418583856611042</v>
+        <v>1.880781657454185</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.849768855751108</v>
+        <v>3.840238058855886</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.880781657454185</v>
+        <v>1.088401836035547e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.840238058855886</v>
+        <v>208623193.5993699</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.088401836035547e-15</v>
+        <v>5.771736741773178e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>208623193.5993699</v>
+        <v>47.37120632117652</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>5.771736741773178e-07</v>
+        <v>0.0001871890167159093</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>47.37120632117652</v>
+        <v>9.579392106710765</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001871890167159093</v>
+        <v>1.293848119067472</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.579392106710765</v>
+        <v>0.01717735390835268</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.293848119067472</v>
+        <v>2.676392300223006</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01717735390835268</v>
+        <v>0.9582537434671999</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.676392300223006</v>
+        <v>1.537941297702451</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9582537434671999</v>
+        <v>12</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.537941297702451</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2857756949043339</v>
       </c>
     </row>
@@ -5122,72 +5044,66 @@
         <v>3.385881694030607e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.4925210591717231</v>
+        <v>1.349099599372703e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.463824399733447</v>
+        <v>3.714546062930215e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.349099599372703e-07</v>
+        <v>-0.01708885483871763</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.714546062930215e-06</v>
+        <v>0.3799760071726005</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.01708885483871763</v>
+        <v>0.1446368870077251</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.3799760071726005</v>
+        <v>1.868051583596756</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.1446368870077251</v>
+        <v>1.79508187215177</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.852263393942009</v>
+        <v>3.930626062935648</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.79508187215177</v>
+        <v>1.133871321933331e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.930626062935648</v>
+        <v>200403669.7715413</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.133871321933331e-15</v>
+        <v>6.005401570609505e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>200403669.7715413</v>
+        <v>45.53812147184666</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>6.005401570609505e-07</v>
+        <v>0.0002008402060376231</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>45.53812147184666</v>
+        <v>12.14452080556102</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0002008402060376231</v>
+        <v>1.047261673033238</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>12.14452080556102</v>
+        <v>0.02962179859160455</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.047261673033238</v>
+        <v>2.418718539481203</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.02962179859160455</v>
+        <v>0.9580919676888203</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.418718539481203</v>
+        <v>1.534366860637556</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9580919676888203</v>
+        <v>12</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.534366860637556</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.3816472449929047</v>
       </c>
     </row>
@@ -5202,72 +5118,66 @@
         <v>3.370915061150854e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.5140867766267938</v>
+        <v>1.349099599372703e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.4107133736298856</v>
+        <v>3.714281444896898e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.349099599372703e-07</v>
+        <v>0.001879734141228724</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.714281444896898e-06</v>
+        <v>0.386175782006884</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.001879734141228724</v>
+        <v>0.149084000110378</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.386175782006884</v>
+        <v>1.89466152940454</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.149084000110378</v>
+        <v>1.914876877281005</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.893311640135182</v>
+        <v>4.227306375226126</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.914876877281005</v>
+        <v>1.333576221258065e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.227306375226126</v>
+        <v>171134900.7583794</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.333576221258065e-15</v>
+        <v>7.060360399776563e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>171134900.7583794</v>
+        <v>39.05665250622607</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>7.060360399776563e-07</v>
+        <v>0.0002230246092228637</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>39.05665250622607</v>
+        <v>12.27627005830453</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0002230246092228637</v>
+        <v>1.11252370871961</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>12.27627005830453</v>
+        <v>0.03361132663679596</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.11252370871961</v>
+        <v>2.457680297183336</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.03361132663679596</v>
+        <v>0.9598920889054332</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.457680297183336</v>
+        <v>1.415575880783802</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9598920889054332</v>
+        <v>9</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.415575880783802</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.3987995841080366</v>
       </c>
     </row>
@@ -5282,72 +5192,66 @@
         <v>3.40387859902038e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.4884541997235985</v>
+        <v>1.349099599372703e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.500032174801361</v>
+        <v>3.714699616054413e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.349099599372703e-07</v>
+        <v>0.02323622662165647</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.714699616054413e-06</v>
+        <v>0.3963843980026028</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.02323622662165647</v>
+        <v>0.1575824490185872</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.3963843980026028</v>
+        <v>1.905168399666715</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.1575824490185872</v>
+        <v>1.67319674940825</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.910596126654548</v>
+        <v>4.490680562362948</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.67319674940825</v>
+        <v>1.489357582060502e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.490680562362948</v>
+        <v>152809875.9546028</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.489357582060502e-15</v>
+        <v>7.910794979831887e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>152809875.9546028</v>
+        <v>34.77777769179559</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>7.910794979831887e-07</v>
+        <v>0.000255933184853781</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>34.77777769179559</v>
+        <v>11.28740286179078</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.000255933184853781</v>
+        <v>1.339843578110829</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>11.28740286179078</v>
+        <v>0.03260728600661307</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.339843578110829</v>
+        <v>2.436939443324805</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.03260728600661307</v>
+        <v>0.9610074144871211</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.436939443324805</v>
+        <v>1.34359396297745</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9610074144871211</v>
+        <v>9</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.34359396297745</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.4001061611968751</v>
       </c>
     </row>
@@ -5362,72 +5266,66 @@
         <v>3.531335092592251e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.4923501343928281</v>
+        <v>1.418022677902126e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.5750849096275146</v>
+        <v>3.71587434290196e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.418022677902126e-07</v>
+        <v>0.04380076171371594</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.71587434290196e-06</v>
+        <v>0.4029471509842958</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.04380076171371594</v>
+        <v>0.1642169474019901</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.4029471509842958</v>
+        <v>1.815513746402016</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.1642169474019901</v>
+        <v>1.683171309644612</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.78720753847364</v>
+        <v>5.749143065766932</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.683171309644612</v>
+        <v>1.264335674580239e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.749143065766932</v>
+        <v>179343188.2856946</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.264335674580239e-15</v>
+        <v>6.574524494272952e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>179343188.2856946</v>
+        <v>40.66606631939191</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>6.574524494272952e-07</v>
+        <v>0.0002264337921070967</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>40.66606631939191</v>
+        <v>12.33953617358991</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0002264337921070967</v>
+        <v>1.104372339573431</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>12.33953617358991</v>
+        <v>0.03447774956108566</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.104372339573431</v>
+        <v>2.46357965070714</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.03447774956108566</v>
+        <v>0.9584901155940843</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.46357965070714</v>
+        <v>1.555734461197093</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9584901155940843</v>
+        <v>10</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.555734461197093</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.5426708538046344</v>
       </c>
     </row>
@@ -5442,72 +5340,66 @@
         <v>3.783819016451121e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.6277464764651173</v>
+        <v>1.711725003234763e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.2311123440762257</v>
+        <v>3.717709609708895e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.711725003234763e-07</v>
+        <v>0.05471500207584219</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.717709609708895e-06</v>
+        <v>0.3875598591384392</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.05471500207584219</v>
+        <v>0.1531746136856592</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.3875598591384392</v>
+        <v>1.791463026338708</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.1531746136856592</v>
+        <v>1.724367091102227</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.749730700079633</v>
+        <v>5.136992469878042</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.724367091102227</v>
+        <v>2.821714045258301e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>5.136992469878042</v>
+        <v>77707956.91831496</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.821714045258301e-15</v>
+        <v>1.502150522414287e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>77707956.91831496</v>
+        <v>17.03899523077244</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.502150522414287e-06</v>
+        <v>0.0002318648440450602</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>17.03899523077244</v>
+        <v>9.027666533348713</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0002318648440450602</v>
+        <v>1.866592895675267</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.027666533348713</v>
+        <v>0.01889669798151917</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.866592895675267</v>
+        <v>2.855994004030581</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01889669798151917</v>
+        <v>0.9581534281192379</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.855994004030581</v>
+        <v>1.73154517366664</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9581534281192379</v>
+        <v>10</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.73154517366664</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.3014189387463281</v>
       </c>
     </row>
@@ -5522,72 +5414,66 @@
         <v>4.11244966139835e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.8102207451889899</v>
+        <v>1.853695846531278e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.2720821900121564</v>
+        <v>3.719888513773121e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.853695846531278e-07</v>
+        <v>0.05416086347007158</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>3.719888513773121e-06</v>
+        <v>0.3586776864175019</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.05416086347007158</v>
+        <v>0.1315787301066291</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.3586776864175019</v>
+        <v>1.782749381608107</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.1315787301066291</v>
+        <v>1.642580727942044</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.737953595018982</v>
+        <v>4.01366655463926</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.642580727942044</v>
+        <v>4.680024730432698e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.01366655463926</v>
+        <v>46202089.32091518</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>4.680024730432698e-15</v>
+        <v>2.521900485960256e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>46202089.32091518</v>
+        <v>9.990135500050583</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.521900485960256e-06</v>
+        <v>0.0001956773451764053</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>9.990135500050583</v>
+        <v>8.994656597312323</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001956773451764053</v>
+        <v>1.756342126829723</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.994656597312323</v>
+        <v>0.01583105005492065</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.756342126829723</v>
+        <v>2.910035196437713</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01583105005492065</v>
+        <v>0.959722573821382</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.910035196437713</v>
+        <v>1.729003450920314</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.959722573821382</v>
+        <v>1</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.729003450920314</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1836540368067701</v>
       </c>
     </row>
@@ -5602,72 +5488,66 @@
         <v>4.44203546317856e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.9263452431583841</v>
+        <v>1.875393189331656e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.4782667096272331</v>
+        <v>3.722048777301814e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.875393189331656e-07</v>
+        <v>0.04593348308756018</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>3.722048777301814e-06</v>
+        <v>0.3307144786690861</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.04593348308756018</v>
+        <v>0.1114719955867012</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.3307144786690861</v>
+        <v>1.779505510906382</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.1114719955867012</v>
+        <v>1.619514322719941</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.731245474755329</v>
+        <v>3.656924034473507</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.619514322719941</v>
+        <v>5.637659596475821e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.656924034473507</v>
+        <v>39075250.97675027</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>5.637659596475821e-15</v>
+        <v>2.983648859227362e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>39075250.97675027</v>
+        <v>8.608002843183474</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>2.983648859227362e-06</v>
+        <v>0.0001606934954999937</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>8.608002843183474</v>
+        <v>9.715782724067893</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001606934954999937</v>
+        <v>1.237379010520854</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.715782724067893</v>
+        <v>0.01516889293276112</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.237379010520854</v>
+        <v>2.829733450972242</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01516889293276112</v>
+        <v>0.9595202576672552</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.829733450972242</v>
+        <v>1.718519393217243</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9595202576672552</v>
+        <v>1</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.718519393217243</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1704615260984767</v>
       </c>
     </row>
@@ -5682,72 +5562,66 @@
         <v>4.716593043059476e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.9677791456462597</v>
+        <v>1.875393189331656e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.4007580126552033</v>
+        <v>3.723851836257929e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.875393189331656e-07</v>
+        <v>0.03191845110763594</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>3.723851836257929e-06</v>
+        <v>0.308049311901713</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.03191845110763594</v>
+        <v>0.09588425061201825</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.308049311901713</v>
+        <v>1.769502375674342</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.09588425061201825</v>
+        <v>1.600908752043624</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.723246940340914</v>
+        <v>3.41236651538914</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.600908752043624</v>
+        <v>6.474696022192138e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3.41236651538914</v>
+        <v>34066158.02007182</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>6.474696022192138e-15</v>
+        <v>3.410314467770575e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>34066158.02007182</v>
+        <v>7.513904949363943</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>3.410314467770575e-06</v>
+        <v>0.0001622291761617398</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>7.513904949363943</v>
+        <v>10.54428498574141</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001622291761617398</v>
+        <v>1.118261645378946</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>10.54428498574141</v>
+        <v>0.01803695548101321</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.118261645378946</v>
+        <v>2.626549662094647</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01803695548101321</v>
+        <v>0.9593883032916521</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.626549662094647</v>
+        <v>1.726436824168294</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9593883032916521</v>
+        <v>1</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.726436824168294</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.1687840724462478</v>
       </c>
     </row>
@@ -5762,72 +5636,66 @@
         <v>4.887239264743038e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.9713968866427349</v>
+        <v>1.875393189331656e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.2510516372745171</v>
+        <v>3.724962535800821e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.875393189331656e-07</v>
+        <v>0.01427740872045443</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>3.724962535800821e-06</v>
+        <v>0.2936858422349589</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.01427740872045443</v>
+        <v>0.08642184915968487</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.2936858422349589</v>
+        <v>1.764779086680441</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.08642184915968487</v>
+        <v>1.602113238477859</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.713613805963479</v>
+        <v>3.341536556502541</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.602113238477859</v>
+        <v>6.752091108391144e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.341536556502541</v>
+        <v>33573751.96757541</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>6.752091108391144e-15</v>
+        <v>3.450376402924284e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>33573751.96757541</v>
+        <v>7.610935633698087</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>3.450376402924284e-06</v>
+        <v>0.0001642353094814218</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>7.610935633698087</v>
+        <v>10.76753107194611</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001642353094814218</v>
+        <v>1.107532313668691</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>10.76753107194611</v>
+        <v>0.01904139667984989</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.107532313668691</v>
+        <v>2.541407881832798</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01904139667984989</v>
+        <v>0.9588433853664975</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.541407881832798</v>
+        <v>1.721971457741</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9588433853664975</v>
+        <v>1</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.721971457741</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1689694369246933</v>
       </c>
     </row>
@@ -5842,72 +5710,66 @@
         <v>4.935392125240881e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.9688381646378424</v>
+        <v>1.875393189331656e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.1938761030819869</v>
+        <v>3.725279619701923e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.875393189331656e-07</v>
+        <v>-0.0004497204252130343</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>3.725279619701923e-06</v>
+        <v>0.2946698866056865</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.0004497204252130343</v>
+        <v>0.08681054029605915</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.2946698866056865</v>
+        <v>1.756055913029858</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.08681054029605915</v>
+        <v>1.605541839933433</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.699203344143451</v>
+        <v>3.370964358294526</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.605541839933433</v>
+        <v>6.634717041553137e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.370964358294526</v>
+        <v>34789806.12342145</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>6.634717041553137e-15</v>
+        <v>3.346147606084104e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>34789806.12342145</v>
+        <v>8.030201124778722</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>3.346147606084104e-06</v>
+        <v>0.0001657173833532082</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>8.030201124778722</v>
+        <v>9.749488816129483</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001657173833532082</v>
+        <v>1.257033967347706</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.749488816129483</v>
+        <v>0.01575185691327582</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.257033967347706</v>
+        <v>2.781385244621646</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01575185691327582</v>
+        <v>0.9574466930762573</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.781385244621646</v>
+        <v>1.708428706585075</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9574466930762573</v>
+        <v>4</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.708428706585075</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1584592421741088</v>
       </c>
     </row>
@@ -5922,72 +5784,66 @@
         <v>4.902611319907194e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.9774902992438355</v>
+        <v>1.875393189331656e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.2535655239303938</v>
+        <v>3.725028630367612e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.875393189331656e-07</v>
+        <v>-0.00867407577968532</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>3.725028630367612e-06</v>
+        <v>0.3033124534980494</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.00867407577968532</v>
+        <v>0.09205721120860531</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.3033124534980494</v>
+        <v>1.753086805090643</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.09205721120860531</v>
+        <v>1.623251996464234</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.689649335864424</v>
+        <v>3.366573334178233</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.623251996464234</v>
+        <v>6.652035661330226e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.366573334178233</v>
+        <v>34794870.49538853</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>6.652035661330226e-15</v>
+        <v>3.341585489190905e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>34794870.49538853</v>
+        <v>8.053506575651515</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>3.341585489190905e-06</v>
+        <v>0.0002076635273880738</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>8.053506575651515</v>
+        <v>9.404451971453989</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0002076635273880738</v>
+        <v>1.674467982869647</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.404451971453989</v>
+        <v>0.01836653422331583</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.674467982869647</v>
+        <v>2.793781364324874</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01836653422331583</v>
+        <v>0.9577110879689074</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.793781364324874</v>
+        <v>1.737362348338179</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9577110879689074</v>
+        <v>4</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.737362348338179</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1408068368215732</v>
       </c>
     </row>
@@ -6002,72 +5858,66 @@
         <v>4.852078986445461e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1.005406128262764</v>
+        <v>1.875393189331656e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0.3822775648590633</v>
+        <v>3.724538715811668e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.875393189331656e-07</v>
+        <v>-0.01059564997953105</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>3.724538715811668e-06</v>
+        <v>0.3084972805590689</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.01059564997953105</v>
+        <v>0.09526340709513509</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.3084972805590689</v>
+        <v>1.758063802098477</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.09526340709513509</v>
+        <v>1.631415258927956</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.690995811530698</v>
+        <v>3.307442938327777</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.631415258927956</v>
+        <v>6.892011708743257e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.307442938327777</v>
+        <v>32282297.0391721</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>6.892011708743257e-15</v>
+        <v>3.587019636152971e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>32282297.0391721</v>
+        <v>7.182487273276014</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>3.587019636152971e-06</v>
+        <v>0.0001895891050024</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>7.182487273276014</v>
+        <v>9.829311556957629</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001895891050024</v>
+        <v>1.445059639972418</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.829311556957629</v>
+        <v>0.01831722070946001</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.445059639972418</v>
+        <v>2.787978555062702</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01831722070946001</v>
+        <v>0.9570014372112048</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.787978555062702</v>
+        <v>1.759273166349199</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9570014372112048</v>
+        <v>4</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.759273166349199</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.143684256046875</v>
       </c>
     </row>
@@ -6082,72 +5932,66 @@
         <v>4.820443191464705e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1.039886819933977</v>
+        <v>1.875393189331656e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0.4964229858145504</v>
+        <v>3.724075159274556e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.875393189331656e-07</v>
+        <v>-0.00816460811527705</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>3.724075159274556e-06</v>
+        <v>0.3074901088079494</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.00816460811527705</v>
+        <v>0.0945965567189717</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.3074901088079494</v>
+        <v>1.763022281573305</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.0945965567189717</v>
+        <v>1.629363963703967</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.692466699476675</v>
+        <v>3.265197866463239</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.629363963703967</v>
+        <v>7.071502821689397e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.265197866463239</v>
+        <v>31620204.37253983</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>7.071502821689397e-15</v>
+        <v>3.665647398707077e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>31620204.37253983</v>
+        <v>7.070352461864808</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>3.665647398707077e-06</v>
+        <v>0.0001701767459462708</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>7.070352461864808</v>
+        <v>10.96657104707795</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001701767459462708</v>
+        <v>1.101020440353609</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>10.96657104707795</v>
+        <v>0.02046642216171272</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.101020440353609</v>
+        <v>2.614687918308687</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.02046642216171272</v>
+        <v>0.9574455850327795</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.614687918308687</v>
+        <v>1.749777171521422</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9574455850327795</v>
+        <v>4</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.749777171521422</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.1555899519698717</v>
       </c>
     </row>
@@ -6162,72 +6006,66 @@
         <v>4.810827128812629e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1.062277562045459</v>
+        <v>1.875393189331656e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>0.5490304493299352</v>
+        <v>3.723780994029372e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.875393189331656e-07</v>
+        <v>-0.00408430781801963</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>3.723780994029372e-06</v>
+        <v>0.3032705815813392</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.00408430781801963</v>
+        <v>0.09197167166176307</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.3032705815813392</v>
+        <v>1.766414371199855</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.09197167166176307</v>
+        <v>1.612791572699737</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.697651106096548</v>
+        <v>3.277360234099976</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.612791572699737</v>
+        <v>7.019115152776488e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.277360234099976</v>
+        <v>32104702.7202189</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>7.019115152776488e-15</v>
+        <v>3.608590294599204e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>32104702.7202189</v>
+        <v>7.234685773415011</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>3.608590294599204e-06</v>
+        <v>0.0001739366788525816</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>7.234685773415011</v>
+        <v>11.3321858397838</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001739366788525816</v>
+        <v>1.069924062518378</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>11.3321858397838</v>
+        <v>0.02233667624517563</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.069924062518378</v>
+        <v>2.457248505057344</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.02233667624517563</v>
+        <v>0.9568240834542192</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.457248505057344</v>
+        <v>1.738653526629361</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9568240834542192</v>
+        <v>4</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.738653526629361</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1577142383324067</v>
       </c>
     </row>
@@ -6242,72 +6080,66 @@
         <v>4.810744299922298e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1.068631181087669</v>
+        <v>1.875393189331656e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.5583074693265027</v>
+        <v>3.723681104127667e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.875393189331656e-07</v>
+        <v>-0.0002794534993539828</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>3.723681104127667e-06</v>
+        <v>0.2991481762813316</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.0002794534993539828</v>
+        <v>0.08947659316023347</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.2991481762813316</v>
+        <v>1.758207342725609</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.08947659316023347</v>
+        <v>1.584174561777492</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.691901861210544</v>
+        <v>3.314538410853283</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.584174561777492</v>
+        <v>6.862535666512045e-15</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.314538410853283</v>
+        <v>31128327.81113289</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>6.862535666512045e-15</v>
+        <v>3.679187848235995e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>31128327.81113289</v>
+        <v>6.649610347157576</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>3.679187848235995e-06</v>
+        <v>0.0001765318410340903</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>6.649610347157576</v>
+        <v>10.70247181575329</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001765318410340903</v>
+        <v>1.1465820220705</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>10.70247181575329</v>
+        <v>0.02022046953815253</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.1465820220705</v>
+        <v>2.608600466488789</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.02022046953815253</v>
+        <v>0.95808339419028</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.608600466488789</v>
+        <v>1.759624499492986</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.95808339419028</v>
+        <v>4</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.759624499492986</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1503155597147705</v>
       </c>
     </row>
@@ -6322,72 +6154,66 @@
         <v>4.808379273225969e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1.067037423514275</v>
+        <v>1.875393189331656e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.5596248380504139</v>
+        <v>3.723743099607002e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.875393189331656e-07</v>
+        <v>0.002614563975648311</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>3.723743099607002e-06</v>
+        <v>0.2966577099038386</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.002614563975648311</v>
+        <v>0.08800489154689341</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.2966577099038386</v>
+        <v>1.754539381977338</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.08800489154689341</v>
+        <v>1.54788806871603</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.690876588780661</v>
+        <v>3.38590314578888</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.54788806871603</v>
+        <v>6.576300734786137e-15</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.38590314578888</v>
+        <v>32257713.82251687</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>6.576300734786137e-15</v>
+        <v>3.553133492685266e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>32257713.82251687</v>
+        <v>6.843036157159736</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>3.553133492685266e-06</v>
+        <v>0.0002080869187724845</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>6.843036157159736</v>
+        <v>9.910224232031732</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0002080869187724845</v>
+        <v>1.46809501063599</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>9.910224232031732</v>
+        <v>0.02043674573425865</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.46809501063599</v>
+        <v>2.6632560252832</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.02043674573425865</v>
+        <v>0.9582969269539316</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.6632560252832</v>
+        <v>1.755206040385845</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9582969269539316</v>
+        <v>4</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.755206040385845</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1386159129899961</v>
       </c>
     </row>
@@ -6402,72 +6228,66 @@
         <v>4.798203059527239e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1.066751635600596</v>
+        <v>1.875393189331656e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.5712995081961756</v>
+        <v>3.723918271458988e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.875393189331656e-07</v>
+        <v>0.004452881812748105</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>3.723918271458988e-06</v>
+        <v>0.2960242279953493</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.004452881812748105</v>
+        <v>0.08764673067573396</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.2960242279953493</v>
+        <v>1.754147903567417</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.08764673067573396</v>
+        <v>1.520563507617554</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.692238614691422</v>
+        <v>3.526520832753046</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.520563507617554</v>
+        <v>6.062305520072035e-15</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.526520832753046</v>
+        <v>35912388.47264595</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>6.062305520072035e-15</v>
+        <v>3.204650237191969e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>35912388.47264595</v>
+        <v>7.818553282030326</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>3.204650237191969e-06</v>
+        <v>0.0002530480167139183</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>7.818553282030326</v>
+        <v>10.08478209741973</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0002530480167139183</v>
+        <v>1.623329185950841</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>10.08478209741973</v>
+        <v>0.02573569941365717</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.623329185950841</v>
+        <v>2.555688703883681</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.02573569941365717</v>
+        <v>0.9579168673320126</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.555688703883681</v>
+        <v>1.74179634871657</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9579168673320126</v>
+        <v>4</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.74179634871657</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1361812041625703</v>
       </c>
     </row>
@@ -6482,72 +6302,66 @@
         <v>4.780571676447988e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1.071997692901927</v>
+        <v>1.875393189331656e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.5943512530450512</v>
+        <v>3.724156635350391e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.875393189331656e-07</v>
+        <v>0.005318024508487169</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>3.724156635350391e-06</v>
+        <v>0.2967476994924482</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.005318024508487169</v>
+        <v>0.08808679950901549</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.2967476994924482</v>
+        <v>1.759901731224576</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.08808679950901549</v>
+        <v>1.526017215936335</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.707710297752409</v>
+        <v>3.543641969018495</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.526017215936335</v>
+        <v>5.234225060118166e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.543641969018495</v>
+        <v>42308047.56257626</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>5.234225060118166e-15</v>
+        <v>2.725773880859539e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>42308047.56257626</v>
+        <v>9.369110481768153</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>2.725773880859539e-06</v>
+        <v>0.0002172039699962195</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>9.369110481768153</v>
+        <v>11.85611497717812</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0002172039699962195</v>
+        <v>1.175929750371878</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>11.85611497717812</v>
+        <v>0.03053181087516315</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.175929750371878</v>
+        <v>2.481847555788662</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.03053181087516315</v>
+        <v>0.9572025774819971</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.481847555788662</v>
+        <v>1.757499994482223</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9572025774819971</v>
+        <v>4</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.757499994482223</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.1618379850964353</v>
       </c>
     </row>
@@ -6562,72 +6376,66 @@
         <v>4.759503241937536e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1.081101086767504</v>
+        <v>1.875393189331656e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0.6225660113583067</v>
+        <v>3.724413816284587e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.875393189331656e-07</v>
+        <v>0.005307009601584855</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>3.724413816284587e-06</v>
+        <v>0.2980406809003719</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.005307009601584855</v>
+        <v>0.08885631240791095</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.2980406809003719</v>
+        <v>1.849174914515127</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.08885631240791095</v>
+        <v>1.695065157905165</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.819267125863665</v>
+        <v>3.148780197479447</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.695065157905165</v>
+        <v>5.201519059772118e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.148780197479447</v>
+        <v>43363416.7879274</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>5.201519059772118e-15</v>
+        <v>2.743628535880939e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>43363416.7879274</v>
+        <v>9.780863179322553</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>2.743628535880939e-06</v>
+        <v>0.0002148823992295573</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>9.780863179322553</v>
+        <v>12.91808670830595</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0002148823992295573</v>
+        <v>0.9970537983244312</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>12.91808670830595</v>
+        <v>0.03585892244415239</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>0.9970537983244312</v>
+        <v>2.13664513887579</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.03585892244415239</v>
+        <v>0.9603202587802896</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.13664513887579</v>
+        <v>1.572778197325411</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9603202587802896</v>
+        <v>3</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.572778197325411</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.1725964925278612</v>
       </c>
     </row>
@@ -6642,72 +6450,66 @@
         <v>4.740820427589731e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1.088894963639655</v>
+        <v>1.875393189331656e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>0.6479991055053258</v>
+        <v>3.724645092128327e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.875393189331656e-07</v>
+        <v>0.004220985604280341</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>3.724645092128327e-06</v>
+        <v>0.2989335653854951</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.004220985604280341</v>
+        <v>0.08937692831715474</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.2989335653854951</v>
+        <v>1.863859952711139</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.08937692831715474</v>
+        <v>1.571038142798328</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.842198382111857</v>
+        <v>3.450107560835748</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.571038142798328</v>
+        <v>4.332610176302277e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.450107560835748</v>
+        <v>52277598.22860366</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>4.332610176302277e-15</v>
+        <v>2.287944611696704e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>52277598.22860366</v>
+        <v>11.84079518168378</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>2.287944611696704e-06</v>
+        <v>0.0002152104946388129</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>11.84079518168378</v>
+        <v>12.10590922047021</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0002152104946388129</v>
+        <v>1.061441951015955</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>12.10590922047021</v>
+        <v>0.03153975181047926</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.061441951015955</v>
+        <v>2.214177793393943</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.03153975181047926</v>
+        <v>0.9609531476424811</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.214177793393943</v>
+        <v>1.536130343732454</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9609531476424811</v>
+        <v>4</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.536130343732454</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.1688888906451611</v>
       </c>
     </row>
@@ -7084,7 +6886,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.315336930553213</v>
+        <v>1.320601003223697</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.090201987836439</v>
@@ -7173,7 +6975,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.342441437256778</v>
+        <v>1.343708582696436</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.069792562671174</v>
@@ -7262,7 +7064,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.350950985823257</v>
+        <v>1.343328344182372</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.102156939114009</v>
@@ -7351,7 +7153,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.324240168004715</v>
+        <v>1.319591645641172</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.119264324526566</v>
@@ -7440,7 +7242,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.354224251875689</v>
+        <v>1.343494565501327</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.197108438923241</v>
@@ -7529,7 +7331,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.369878217728947</v>
+        <v>1.358578677753803</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.137872037598896</v>
@@ -7618,7 +7420,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.331987789184667</v>
+        <v>1.322956897105436</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.09915132078321</v>
@@ -7707,7 +7509,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.35591894126626</v>
+        <v>1.342364864276932</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.9827456468818</v>
@@ -7796,7 +7598,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.322367675651725</v>
+        <v>1.314883266675469</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.168142589680798</v>
@@ -7885,7 +7687,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.322062926065093</v>
+        <v>1.316832586685167</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.099142759359934</v>
@@ -7974,7 +7776,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.294257498366657</v>
+        <v>1.292714695354633</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.131023650951219</v>
@@ -8063,7 +7865,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.29397439218497</v>
+        <v>1.291005023544028</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.057976415787236</v>
@@ -8152,7 +7954,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.313968892811909</v>
+        <v>1.30883764728509</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.943202571026026</v>
@@ -8241,7 +8043,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.321047474169505</v>
+        <v>1.31571657881283</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.14818313575778</v>
@@ -8330,7 +8132,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.31229341835298</v>
+        <v>1.306275050090246</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.121889339643835</v>
@@ -8419,7 +8221,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.311930121914241</v>
+        <v>1.307731943949638</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.140315427994349</v>
@@ -8508,7 +8310,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.298696330926118</v>
+        <v>1.288584178632548</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.928170741170896</v>
@@ -8597,7 +8399,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.294021436238241</v>
+        <v>1.287628075846431</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.108771876945272</v>
@@ -8686,7 +8488,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.318155849680793</v>
+        <v>1.307516483923949</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.098068523113712</v>
@@ -8775,7 +8577,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.31223867579092</v>
+        <v>1.2983010387922</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.077069956051435</v>
@@ -8864,7 +8666,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.292936577170463</v>
+        <v>1.282813067838095</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.930548846264031</v>
@@ -8953,7 +8755,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.319667990268575</v>
+        <v>1.307199262528331</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.051009838571715</v>
@@ -9042,7 +8844,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.321168588652623</v>
+        <v>1.308506791361566</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.955349701109941</v>
@@ -9131,7 +8933,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.366220210262007</v>
+        <v>1.350216216287384</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.012291150235679</v>
@@ -9220,7 +9022,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.375294079175515</v>
+        <v>1.358827030291854</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.001983238051648</v>
@@ -9309,7 +9111,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.358737223604855</v>
+        <v>1.347060982198308</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.043491546588577</v>
@@ -9398,7 +9200,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.356821261386141</v>
+        <v>1.343848179971458</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.042855363419725</v>
@@ -9487,7 +9289,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.357346188031109</v>
+        <v>1.343886818222873</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.058569569898461</v>
@@ -9576,7 +9378,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.358657644028431</v>
+        <v>1.339749270307159</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.083214972270922</v>
@@ -9665,7 +9467,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.305709601578753</v>
+        <v>1.290100651873848</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.146051248399798</v>
@@ -9754,7 +9556,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.296457966675947</v>
+        <v>1.284881089238506</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.956056782227329</v>
@@ -9843,7 +9645,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.322294401188481</v>
+        <v>1.318162338980271</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.015423396502779</v>
@@ -9932,7 +9734,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.347044796245521</v>
+        <v>1.345218332337699</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.993923876732916</v>
@@ -10021,7 +9823,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.345960120685628</v>
+        <v>1.345013355224201</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.051557356540775</v>
@@ -10110,7 +9912,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.381966371163196</v>
+        <v>1.379273795634244</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.930346190881941</v>
@@ -10199,7 +10001,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.365447602812377</v>
+        <v>1.359474232551112</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.036573617752524</v>
@@ -10288,7 +10090,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.362210875472385</v>
+        <v>1.345813883647057</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.060764207039492</v>
@@ -10377,7 +10179,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.32776274615145</v>
+        <v>1.324865086114852</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.077559428889126</v>
@@ -10466,7 +10268,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.328413144396954</v>
+        <v>1.324134509829299</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.104508312958845</v>
@@ -10555,7 +10357,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.339028355674233</v>
+        <v>1.330912189206934</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.878928182196319</v>
@@ -10644,7 +10446,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.340757537980082</v>
+        <v>1.329090738839553</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.046416671898639</v>
@@ -10733,7 +10535,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.339335817339574</v>
+        <v>1.329343089470575</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.035969880366335</v>
@@ -10822,7 +10624,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.345804066922731</v>
+        <v>1.336973178736187</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.078823794791006</v>
@@ -10911,7 +10713,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.356736422008537</v>
+        <v>1.339082579180611</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.974299493452589</v>
@@ -11000,7 +10802,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.384253223239402</v>
+        <v>1.374665429027785</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.864725161671187</v>
@@ -11089,7 +10891,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.395843042220024</v>
+        <v>1.384721270728314</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.039312692672792</v>
@@ -11178,7 +10980,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.364248092208797</v>
+        <v>1.354270463387236</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.044700685572412</v>
@@ -11267,7 +11069,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.365853788692183</v>
+        <v>1.35492537756904</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.053972401524668</v>
@@ -11356,7 +11158,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.364415360125196</v>
+        <v>1.353713957776087</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.017420494709176</v>
@@ -11445,7 +11247,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.360993644181385</v>
+        <v>1.353074559586702</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.994304773986378</v>
@@ -11534,7 +11336,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.348859742621682</v>
+        <v>1.343965249765963</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.000792041074497</v>
@@ -11623,7 +11425,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.375167495560898</v>
+        <v>1.368034741413619</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.008238075465237</v>
@@ -11712,7 +11514,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.38607160546959</v>
+        <v>1.373699877045002</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.042679965408661</v>
@@ -11801,7 +11603,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.383739719622392</v>
+        <v>1.372926551017509</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.011352920670868</v>
@@ -11890,7 +11692,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.351864022030969</v>
+        <v>1.343448943769595</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.051786105847136</v>
@@ -11979,7 +11781,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.372696510815617</v>
+        <v>1.366006555061036</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.930854844546494</v>
@@ -12068,7 +11870,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.368089084527965</v>
+        <v>1.363249694650459</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.028504368785554</v>
@@ -12157,7 +11959,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.359777587226487</v>
+        <v>1.343792765253302</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.994276616901373</v>
@@ -12246,7 +12048,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.377087037340659</v>
+        <v>1.359739293813396</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.894045437255323</v>
@@ -12335,7 +12137,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.33326096632937</v>
+        <v>1.322025705923475</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.076699818413682</v>
@@ -12424,7 +12226,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.32741912551619</v>
+        <v>1.316196925097788</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.004280291240232</v>
@@ -12513,7 +12315,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.33916076739117</v>
+        <v>1.32463931247422</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.054771520472851</v>
@@ -12602,7 +12404,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.296555584070267</v>
+        <v>1.29081009344417</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.100510829242404</v>
@@ -12691,7 +12493,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.285076661342284</v>
+        <v>1.284783689939323</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.108777321311734</v>
@@ -12780,7 +12582,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.280197761852648</v>
+        <v>1.270848898920199</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.715140408395791</v>
@@ -12869,7 +12671,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.271398390403521</v>
+        <v>1.261545557721456</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.742278343094576</v>
@@ -12958,7 +12760,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.262909254225459</v>
+        <v>1.247014900349206</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.808460549792334</v>
@@ -13047,7 +12849,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.261723131185207</v>
+        <v>1.251129784618074</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.829521533099576</v>
@@ -13136,7 +12938,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.257271822763986</v>
+        <v>1.250330068371692</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.79973134548124</v>
@@ -13225,7 +13027,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.273131331347089</v>
+        <v>1.268571968040513</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.858763844834967</v>
@@ -13314,7 +13116,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.277195617959557</v>
+        <v>1.271919772996735</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.900933428114127</v>
@@ -13403,7 +13205,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.262177178608436</v>
+        <v>1.256180170735844</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.904501073115033</v>
@@ -13492,7 +13294,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.256036594563124</v>
+        <v>1.250681890812332</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.868565756369285</v>
@@ -13581,7 +13383,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.260203602535177</v>
+        <v>1.25458049231428</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.875551068109622</v>
@@ -13670,7 +13472,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.270805043322734</v>
+        <v>1.263860611607639</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.921652393598049</v>
@@ -13759,7 +13561,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.277475973878086</v>
+        <v>1.268436119232826</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.88347699932483</v>
@@ -14045,7 +13847,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.549703234410474</v>
+        <v>1.54588636236933</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.713015040145399</v>
@@ -14134,7 +13936,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.55622534138163</v>
+        <v>1.548938343287201</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.803746344901236</v>
@@ -14223,7 +14025,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.558074530059009</v>
+        <v>1.549456416785115</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.765978478260974</v>
@@ -14312,7 +14114,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.555280492990306</v>
+        <v>1.540573654630825</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.723683731505373</v>
@@ -14401,7 +14203,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.570581263681813</v>
+        <v>1.554363871837001</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.840673726639845</v>
@@ -14490,7 +14292,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.579757031938999</v>
+        <v>1.562259172769626</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.805556299033092</v>
@@ -14579,7 +14381,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.584546043758316</v>
+        <v>1.558847126831759</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.844800793538136</v>
@@ -14668,7 +14470,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.608959582506754</v>
+        <v>1.576619125961238</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.592627927973848</v>
@@ -14757,7 +14559,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.619199891609441</v>
+        <v>1.588656035284478</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.152622459908959</v>
@@ -14846,7 +14648,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.61498333813199</v>
+        <v>1.586596365196686</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.173929065965465</v>
@@ -14935,7 +14737,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.595183036272538</v>
+        <v>1.570510668104062</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.863685919325856</v>
@@ -15024,7 +14826,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.592777747708108</v>
+        <v>1.568001654014499</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.119186782539017</v>
@@ -15113,7 +14915,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.591140654979135</v>
+        <v>1.562834739035667</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.934836644575864</v>
@@ -15202,7 +15004,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.588976548649243</v>
+        <v>1.556595492960568</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.925871216123872</v>
@@ -15291,7 +15093,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.582464050051771</v>
+        <v>1.551942244029997</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.948275948370935</v>
@@ -15380,7 +15182,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.60331931414734</v>
+        <v>1.57631639973476</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.782465744044751</v>
@@ -15469,7 +15271,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.605788194723102</v>
+        <v>1.578681084675124</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.792661394643523</v>
@@ -15558,7 +15360,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.609700819852099</v>
+        <v>1.583521463505029</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.046881807076543</v>
@@ -15647,7 +15449,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.582368489836521</v>
+        <v>1.566512660376997</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.125716438650879</v>
@@ -15736,7 +15538,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.574079481058894</v>
+        <v>1.554822418958024</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.906659296981835</v>
@@ -15825,7 +15627,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.561670034730702</v>
+        <v>1.552386540533578</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.003687628651373</v>
@@ -15914,7 +15716,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.558693791255763</v>
+        <v>1.550924367484413</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.791874864810287</v>
@@ -16003,7 +15805,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.561909550736561</v>
+        <v>1.556677803470409</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.75753935037485</v>
@@ -16092,7 +15894,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.581295920516401</v>
+        <v>1.567235644298665</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.852822938395196</v>
@@ -16181,7 +15983,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.577033911765008</v>
+        <v>1.569143209432922</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.914286063878992</v>
@@ -16270,7 +16072,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.600679657169698</v>
+        <v>1.5862435925639</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.920932063390984</v>
@@ -16359,7 +16161,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.591693237349242</v>
+        <v>1.580001885171325</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.931229545263047</v>
@@ -16448,7 +16250,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.584293124289514</v>
+        <v>1.576232457724198</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.844115044787468</v>
@@ -16537,7 +16339,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.586866333011717</v>
+        <v>1.579595451029021</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.850040368853253</v>
@@ -16626,7 +16428,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.588607745837292</v>
+        <v>1.57794423763609</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.792288760255415</v>
@@ -16715,7 +16517,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.575976602999243</v>
+        <v>1.56571863996647</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.792360108347701</v>
@@ -16804,7 +16606,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.577450932279617</v>
+        <v>1.567990181253948</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.065928154922236</v>
@@ -16893,7 +16695,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.586131966045782</v>
+        <v>1.573757661134183</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.655727516822436</v>
@@ -16982,7 +16784,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.600032827227905</v>
+        <v>1.582804424441812</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.758341146443893</v>
@@ -17071,7 +16873,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.60812813135216</v>
+        <v>1.594872348893801</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.974042396727576</v>
@@ -17160,7 +16962,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.610422197032321</v>
+        <v>1.59654017858613</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.235725993468272</v>
@@ -17249,7 +17051,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.618096633713303</v>
+        <v>1.601629822717623</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.882092978160227</v>
@@ -17338,7 +17140,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.616604336107776</v>
+        <v>1.599027172780801</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.929904808637551</v>
@@ -17427,7 +17229,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.620436630665532</v>
+        <v>1.608497091636736</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.133416009945684</v>
@@ -17516,7 +17318,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.639555409131332</v>
+        <v>1.626177134233552</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.165291908168114</v>
@@ -17605,7 +17407,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.640180931319884</v>
+        <v>1.627337819592128</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.398718195260912</v>
@@ -17694,7 +17496,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.659894477478249</v>
+        <v>1.652149824332067</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.129720620869834</v>
@@ -17783,7 +17585,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.67908004898761</v>
+        <v>1.669284154009554</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.296077330920958</v>
@@ -17872,7 +17674,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.681763967859618</v>
+        <v>1.670828291555505</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.220998593591931</v>
@@ -17961,7 +17763,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.686858450096864</v>
+        <v>1.681939703964083</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.320870280148168</v>
@@ -18050,7 +17852,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.675560572708971</v>
+        <v>1.671006757124335</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.269975591535954</v>
@@ -18139,7 +17941,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.672679033576414</v>
+        <v>1.672597699061348</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.144768668856857</v>
@@ -18228,7 +18030,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.674555702000893</v>
+        <v>1.673663245450137</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.158251882593644</v>
@@ -18317,7 +18119,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.6863900576962</v>
+        <v>1.684295757197243</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.180008623007677</v>
@@ -18406,7 +18208,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.681009426800606</v>
+        <v>1.682659076637422</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.005399197558325</v>
@@ -18495,7 +18297,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.691203381063518</v>
+        <v>1.690109805124476</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.28781018715786</v>
@@ -18584,7 +18386,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.674508992796302</v>
+        <v>1.676770846716214</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.005287870665712</v>
@@ -18673,7 +18475,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.670924635243947</v>
+        <v>1.664854373244465</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.964446389231413</v>
@@ -18762,7 +18564,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.670672290652955</v>
+        <v>1.666849941608892</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.398509665805033</v>
@@ -18851,7 +18653,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.64975602574127</v>
+        <v>1.64375820837571</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.272068445897714</v>
@@ -18940,7 +18742,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.650427112591712</v>
+        <v>1.645593775522243</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.346619312442947</v>
@@ -19029,7 +18831,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.632087802334734</v>
+        <v>1.625387498717242</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.822563770664935</v>
@@ -19118,7 +18920,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.631644617148228</v>
+        <v>1.626759147310336</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.309745557182004</v>
@@ -19207,7 +19009,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.633099696511936</v>
+        <v>1.629358917228937</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.906771354587207</v>
@@ -19296,7 +19098,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.620416940357071</v>
+        <v>1.611885628998957</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.673386307060249</v>
@@ -19385,7 +19187,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.617604311428261</v>
+        <v>1.60927997468213</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.161532115530527</v>
@@ -19474,7 +19276,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.607636393360185</v>
+        <v>1.593426354807061</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.584064427147926</v>
@@ -19563,7 +19365,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.556702967141402</v>
+        <v>1.552880125472651</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.524013891776955</v>
@@ -19652,7 +19454,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.547323922101426</v>
+        <v>1.542699530075756</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.410146216696457</v>
@@ -19741,7 +19543,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.498564708569066</v>
+        <v>1.496884425015767</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.328068970166865</v>
@@ -19830,7 +19632,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.472458540036075</v>
+        <v>1.470692419819476</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.240273700135522</v>
@@ -19919,7 +19721,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.418322384488089</v>
+        <v>1.417294952119429</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.094426280489622</v>
@@ -20008,7 +19810,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.421299303605726</v>
+        <v>1.424018424825077</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.093417868104348</v>
@@ -20097,7 +19899,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.406332317513413</v>
+        <v>1.406884313377573</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.060318315836696</v>
@@ -20186,7 +19988,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.385577223366208</v>
+        <v>1.3870379883327</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.155910266651871</v>
@@ -20275,7 +20077,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.377774214207819</v>
+        <v>1.373606467492127</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.116332085642773</v>
@@ -20364,7 +20166,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.365770554082552</v>
+        <v>1.365382672580296</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.131176650860743</v>
@@ -20453,7 +20255,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.350128549058229</v>
+        <v>1.347159118903911</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.079367501049362</v>
@@ -20542,7 +20344,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.349840149338039</v>
+        <v>1.34490592153594</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.156200604321947</v>
@@ -20631,7 +20433,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.35227549389346</v>
+        <v>1.351180817688189</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.129478339092049</v>
@@ -20720,7 +20522,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.352947652203993</v>
+        <v>1.352828746456471</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.110123013932546</v>
@@ -21006,7 +20808,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.545110149466682</v>
+        <v>1.502457960728575</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.904810300022702</v>
@@ -21095,7 +20897,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.555454324388681</v>
+        <v>1.508191045455633</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.942135819616118</v>
@@ -21184,7 +20986,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.553474665015795</v>
+        <v>1.501938193075175</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.944041563435991</v>
@@ -21273,7 +21075,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.552682596544511</v>
+        <v>1.502376632292752</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.719037257813317</v>
@@ -21362,7 +21164,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.573924760404416</v>
+        <v>1.520481021151656</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.026293497904644</v>
@@ -21451,7 +21253,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.581214363445741</v>
+        <v>1.524708430782018</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.084838484101433</v>
@@ -21540,7 +21342,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.567182269250489</v>
+        <v>1.510029741637097</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.004664702677923</v>
@@ -21629,7 +21431,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.577517838444743</v>
+        <v>1.512233528951388</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.922793876039365</v>
@@ -21718,7 +21520,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.589617849676602</v>
+        <v>1.524913223286581</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.073030736878414</v>
@@ -21807,7 +21609,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.573355395092638</v>
+        <v>1.511492559089474</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.126886151654129</v>
@@ -21896,7 +21698,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.562061125159911</v>
+        <v>1.503282400871951</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.189176011729165</v>
@@ -21985,7 +21787,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.560584573038658</v>
+        <v>1.506222554705649</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.167149057978695</v>
@@ -22074,7 +21876,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.561248086913156</v>
+        <v>1.506600130490428</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.941697259793829</v>
@@ -22163,7 +21965,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.561673110439583</v>
+        <v>1.505646899536741</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.057970964230015</v>
@@ -22252,7 +22054,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.554330767488076</v>
+        <v>1.498291351541353</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.046344278285711</v>
@@ -22341,7 +22143,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.564435051338196</v>
+        <v>1.506042952295257</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.927165059127697</v>
@@ -22430,7 +22232,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.551949692178136</v>
+        <v>1.50015951479723</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.778617001133097</v>
@@ -22519,7 +22321,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.556193654441453</v>
+        <v>1.512304429800672</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.922723153800589</v>
@@ -22608,7 +22410,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.556690298198415</v>
+        <v>1.517049284799918</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.83942592007974</v>
@@ -22697,7 +22499,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.551603272089083</v>
+        <v>1.510203164335011</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.164541220120988</v>
@@ -22786,7 +22588,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.550220204711861</v>
+        <v>1.516955157586636</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.794771451556588</v>
@@ -22875,7 +22677,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.563219910377839</v>
+        <v>1.527537931898452</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.121433299206896</v>
@@ -22964,7 +22766,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.563569873765416</v>
+        <v>1.538005990890545</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.719016395227916</v>
@@ -23053,7 +22855,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.593007491116155</v>
+        <v>1.559570936467231</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.196152843686974</v>
@@ -23142,7 +22944,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.588269251185096</v>
+        <v>1.558470198374498</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.301718216223545</v>
@@ -23231,7 +23033,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.586778963962651</v>
+        <v>1.558853362898166</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.271861016145354</v>
@@ -23320,7 +23122,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.583359740143988</v>
+        <v>1.554389675268508</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.24906506010662</v>
@@ -23409,7 +23211,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.578707731831362</v>
+        <v>1.553820800462142</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.305940571005098</v>
@@ -23498,7 +23300,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.581586947265862</v>
+        <v>1.553983680600464</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.454812442805577</v>
@@ -23587,7 +23389,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.584540577315628</v>
+        <v>1.560453144592773</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.177110042619633</v>
@@ -23676,7 +23478,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.57164233229036</v>
+        <v>1.553270788399017</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.120719367058352</v>
@@ -23765,7 +23567,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.582467996195897</v>
+        <v>1.560059275174005</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.863989476573706</v>
@@ -23854,7 +23656,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.593722954538302</v>
+        <v>1.562354388037188</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.753824751609248</v>
@@ -23943,7 +23745,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.589892298937485</v>
+        <v>1.55241937276339</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.207242180545778</v>
@@ -24032,7 +23834,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.594823942635718</v>
+        <v>1.553133316121799</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.937515109949029</v>
@@ -24121,7 +23923,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.585505991209239</v>
+        <v>1.543716932431342</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.082510084474246</v>
@@ -24210,7 +24012,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.584545454112934</v>
+        <v>1.544749322286232</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.149790238365151</v>
@@ -24299,7 +24101,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.575136180683721</v>
+        <v>1.538260159888996</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.252190240280628</v>
@@ -24388,7 +24190,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.581507318820272</v>
+        <v>1.538902517260633</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.107089260797967</v>
@@ -24477,7 +24279,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.584909465101973</v>
+        <v>1.544977055539154</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.783113879071542</v>
@@ -24566,7 +24368,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.589640679844277</v>
+        <v>1.543821143134929</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.758563162765389</v>
@@ -24655,7 +24457,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.588227489872179</v>
+        <v>1.543365746859422</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.037771078655381</v>
@@ -24744,7 +24546,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.60065882989385</v>
+        <v>1.549521956968271</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.116870901944328</v>
@@ -24833,7 +24635,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.600358436744294</v>
+        <v>1.548404752988717</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.086671144078557</v>
@@ -24922,7 +24724,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.603969005349463</v>
+        <v>1.551442572110541</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.5448131194593</v>
@@ -25011,7 +24813,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.609888802168477</v>
+        <v>1.556764169899837</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.037550086214661</v>
@@ -25100,7 +24902,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.612517877925515</v>
+        <v>1.555577763687487</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.27215570428637</v>
@@ -25189,7 +24991,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.612074923233565</v>
+        <v>1.554149458268344</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.84363067758071</v>
@@ -25278,7 +25080,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.610711428682633</v>
+        <v>1.557356827723402</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.149527881849408</v>
@@ -25367,7 +25169,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.616570784887468</v>
+        <v>1.562144458662874</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.269118996785481</v>
@@ -25456,7 +25258,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.613716446671811</v>
+        <v>1.559117530380289</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.154109303947541</v>
@@ -25545,7 +25347,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.626214091637213</v>
+        <v>1.566591902354737</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.68547187309347</v>
@@ -25634,7 +25436,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.628557170302644</v>
+        <v>1.56033281632992</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.784108860222217</v>
@@ -25723,7 +25525,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.6241562508138</v>
+        <v>1.561114653925105</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.061233047154249</v>
@@ -25812,7 +25614,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.613424018668447</v>
+        <v>1.552624279957233</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.157708987638491</v>
@@ -25901,7 +25703,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.629954303014272</v>
+        <v>1.569663112044506</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.131803099828951</v>
@@ -25990,7 +25792,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.63005835241793</v>
+        <v>1.570778178500289</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.943608236994704</v>
@@ -26079,7 +25881,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.624990631275732</v>
+        <v>1.570649139945686</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.093809060921597</v>
@@ -26168,7 +25970,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.621406236275878</v>
+        <v>1.572899021905287</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.217864785026888</v>
@@ -26257,7 +26059,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.607441210926705</v>
+        <v>1.565066584083976</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.177308264755436</v>
@@ -26346,7 +26148,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.608563724497797</v>
+        <v>1.564390251771699</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.28311446557689</v>
@@ -26435,7 +26237,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.614598587302638</v>
+        <v>1.575576381751472</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.181775545884919</v>
@@ -26524,7 +26326,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.606119661556574</v>
+        <v>1.569243045421426</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.112914989483237</v>
@@ -26613,7 +26415,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.601873015419368</v>
+        <v>1.566804334645011</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.935108276105591</v>
@@ -26702,7 +26504,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.486692555870857</v>
+        <v>1.470697031365588</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.986948499628566</v>
@@ -26791,7 +26593,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.474776999758847</v>
+        <v>1.461821456603713</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.952956258067422</v>
@@ -26880,7 +26682,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.418829729093557</v>
+        <v>1.410067690729258</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.9846036276252</v>
@@ -26969,7 +26771,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.41936749964798</v>
+        <v>1.413323615255468</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.942976164748526</v>
@@ -27058,7 +26860,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.414548143998992</v>
+        <v>1.412691534305037</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.021614095536614</v>
@@ -27147,7 +26949,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.415426874121156</v>
+        <v>1.412053288736134</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.964797934394283</v>
@@ -27236,7 +27038,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.414327126729918</v>
+        <v>1.406936674698013</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.999846066565474</v>
@@ -27325,7 +27127,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.408640613065678</v>
+        <v>1.403444079919349</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.016584463763277</v>
@@ -27414,7 +27216,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.402058723463263</v>
+        <v>1.398323399337876</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.989490142711457</v>
@@ -27503,7 +27305,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.408182828236084</v>
+        <v>1.400681643729141</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.98135261864036</v>
@@ -27592,7 +27394,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.414493535493526</v>
+        <v>1.407801779789917</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.976176486892303</v>
@@ -27681,7 +27483,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.416558581034816</v>
+        <v>1.407891442700817</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.998648045473119</v>
@@ -27967,7 +27769,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.611090669110785</v>
+        <v>1.558691136216252</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.038518532113644</v>
@@ -28056,7 +27858,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.611132193372168</v>
+        <v>1.556123446891633</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.128035801806478</v>
@@ -28145,7 +27947,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.605910415338545</v>
+        <v>1.548240102605722</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.188202808532951</v>
@@ -28234,7 +28036,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.605964754946382</v>
+        <v>1.545449426744571</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.222473873218449</v>
@@ -28323,7 +28125,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.61870083413861</v>
+        <v>1.559705357230889</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.584644891711759</v>
@@ -28412,7 +28214,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.618986692770271</v>
+        <v>1.555784763679524</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.246934838711212</v>
@@ -28501,7 +28303,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.613264434647102</v>
+        <v>1.542275119757562</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.426957625461402</v>
@@ -28590,7 +28392,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.615511288244897</v>
+        <v>1.542780796854822</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.62448022289494</v>
@@ -28679,7 +28481,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.630125309537708</v>
+        <v>1.555800177866895</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.391444788248552</v>
@@ -28768,7 +28570,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.617206894778273</v>
+        <v>1.546087746927836</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.209637587785553</v>
@@ -28857,7 +28659,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.607536851232448</v>
+        <v>1.546162836914171</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.202682475614397</v>
@@ -28946,7 +28748,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.601485388637355</v>
+        <v>1.540601515872082</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.198198584580098</v>
@@ -29035,7 +28837,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.590290792439433</v>
+        <v>1.533895592257304</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.222427700639426</v>
@@ -29124,7 +28926,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.591651729994115</v>
+        <v>1.535113689436262</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.44657337512134</v>
@@ -29213,7 +29015,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.579033230604216</v>
+        <v>1.534384044885972</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.271780296071262</v>
@@ -29302,7 +29104,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.585762786799385</v>
+        <v>1.540645366587669</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.008775690027015</v>
@@ -29391,7 +29193,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.576635726952465</v>
+        <v>1.536431554151099</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.395584554107006</v>
@@ -29480,7 +29282,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.581138196552796</v>
+        <v>1.546433183085289</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.41995666189798</v>
@@ -29569,7 +29371,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.58109788537646</v>
+        <v>1.551800035636173</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.984938965996002</v>
@@ -29658,7 +29460,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.579883455680592</v>
+        <v>1.546313555024976</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.458684975264545</v>
@@ -29747,7 +29549,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.584668648423935</v>
+        <v>1.557405534087835</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.343012341323631</v>
@@ -29836,7 +29638,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.594011192891446</v>
+        <v>1.568036363388043</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.160551488452899</v>
@@ -29925,7 +29727,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.596173679182585</v>
+        <v>1.571992753089815</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.505131683083</v>
@@ -30014,7 +29816,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.605123697858035</v>
+        <v>1.578202902919729</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.34135277907221</v>
@@ -30103,7 +29905,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.599680084768511</v>
+        <v>1.576920237178789</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.36390966827472</v>
@@ -30192,7 +29994,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.610604013574909</v>
+        <v>1.58100520716786</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.18829707404702</v>
@@ -30281,7 +30083,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.610678707315383</v>
+        <v>1.584119670234266</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.403447512731984</v>
@@ -30370,7 +30172,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.617831745912985</v>
+        <v>1.591735359201233</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.013632162039509</v>
@@ -30459,7 +30261,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.624116601619061</v>
+        <v>1.598307255225236</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.214646860839268</v>
@@ -30548,7 +30350,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.634212730899634</v>
+        <v>1.600088181431625</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.250372276666214</v>
@@ -30637,7 +30439,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.625220270710766</v>
+        <v>1.588097129084116</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.185554625087755</v>
@@ -30726,7 +30528,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.634107136221186</v>
+        <v>1.594883109777847</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.041012698192471</v>
@@ -30815,7 +30617,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.633719641319886</v>
+        <v>1.588866697763456</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.967666916386764</v>
@@ -30904,7 +30706,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.629197363120463</v>
+        <v>1.577880469924367</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.988270825365696</v>
@@ -30993,7 +30795,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.629294529685264</v>
+        <v>1.580727457038579</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.122452130632011</v>
@@ -31082,7 +30884,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.623838707708395</v>
+        <v>1.569909096745762</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.991225428022664</v>
@@ -31171,7 +30973,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.630933263192948</v>
+        <v>1.581048554280784</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.087764963319056</v>
@@ -31260,7 +31062,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.624043620753915</v>
+        <v>1.576644525496426</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.184063218317458</v>
@@ -31349,7 +31151,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.638222597083853</v>
+        <v>1.57993570364895</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.216297278430874</v>
@@ -31438,7 +31240,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.638913862505345</v>
+        <v>1.583470843188935</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.300007236015444</v>
@@ -31527,7 +31329,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.648004694155599</v>
+        <v>1.590033100849508</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.857795415637022</v>
@@ -31616,7 +31418,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.632584850470263</v>
+        <v>1.57751223276806</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.375679091209884</v>
@@ -31705,7 +31507,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.645923526977609</v>
+        <v>1.585458595792735</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.985865602179105</v>
@@ -31794,7 +31596,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.644302739464156</v>
+        <v>1.581155096932791</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.240620929380258</v>
@@ -31883,7 +31685,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.644943712667478</v>
+        <v>1.591126259290435</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.789616841774174</v>
@@ -31972,7 +31774,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.652358548617836</v>
+        <v>1.60188565673751</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.475692658481639</v>
@@ -32061,7 +31863,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.649832341885632</v>
+        <v>1.596414058204852</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.387788767013086</v>
@@ -32150,7 +31952,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.645720161177203</v>
+        <v>1.594458547671847</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.833840136069881</v>
@@ -32239,7 +32041,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.649929033349854</v>
+        <v>1.601897740014817</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.268681973082653</v>
@@ -32328,7 +32130,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.647779802459365</v>
+        <v>1.594075381958868</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.084878116932158</v>
@@ -32417,7 +32219,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.639245861456065</v>
+        <v>1.59179318125842</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.326050961678888</v>
@@ -32506,7 +32308,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.631660540771467</v>
+        <v>1.577815873327668</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.782059293687531</v>
@@ -32595,7 +32397,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.639455972867671</v>
+        <v>1.581786680180026</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.902582210514348</v>
@@ -32684,7 +32486,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.632474061921157</v>
+        <v>1.579057981419757</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.367691865959024</v>
@@ -32773,7 +32575,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.632626960350142</v>
+        <v>1.569205450716369</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.134220974581114</v>
@@ -32862,7 +32664,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.643557009987787</v>
+        <v>1.585841787402259</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.288551436464049</v>
@@ -32951,7 +32753,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.654812215847363</v>
+        <v>1.593701568358339</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.121058807038998</v>
@@ -33040,7 +32842,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.64967234933353</v>
+        <v>1.597011903872479</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.226253087496003</v>
@@ -33129,7 +32931,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.642081092869635</v>
+        <v>1.598518662425305</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.182914957694464</v>
@@ -33218,7 +33020,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.644902817358336</v>
+        <v>1.600391074850366</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.077466603458178</v>
@@ -33307,7 +33109,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.648732989643036</v>
+        <v>1.607570505186847</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.249684298994966</v>
@@ -33396,7 +33198,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.652631153764715</v>
+        <v>1.612300411234594</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.003854625299896</v>
@@ -33485,7 +33287,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.658180417098086</v>
+        <v>1.617147695560965</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.295213581249673</v>
@@ -33574,7 +33376,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.64653604461533</v>
+        <v>1.610132236504159</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.79740262296656</v>
@@ -33663,7 +33465,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.52352872924206</v>
+        <v>1.509665040254522</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.973247192357368</v>
@@ -33752,7 +33554,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.51376060545751</v>
+        <v>1.502959977525508</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.939206986679364</v>
@@ -33841,7 +33643,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.456746396799569</v>
+        <v>1.455843283366448</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.967929840700803</v>
@@ -33930,7 +33732,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.458058240345139</v>
+        <v>1.460167066654766</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.934490615408167</v>
@@ -34019,7 +33821,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.459669176875237</v>
+        <v>1.467149612395758</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.979744754147253</v>
@@ -34108,7 +33910,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.460130709125218</v>
+        <v>1.469228842608272</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.959789418818302</v>
@@ -34197,7 +33999,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.457147103105109</v>
+        <v>1.46368599005258</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.968712668995233</v>
@@ -34286,7 +34088,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.451196863037966</v>
+        <v>1.456033895485332</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.92481480466179</v>
@@ -34375,7 +34177,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.443436336926135</v>
+        <v>1.446310815706962</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.924616488434237</v>
@@ -34464,7 +34266,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.44640143856995</v>
+        <v>1.446221137877715</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.946856034144715</v>
@@ -34553,7 +34355,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.447780910726572</v>
+        <v>1.452143252702996</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.921019086779469</v>
@@ -34642,7 +34444,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.442686147131584</v>
+        <v>1.444060474812631</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.932944499265628</v>
@@ -34928,7 +34730,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.542176339886432</v>
+        <v>1.514878091684789</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.117361827002747</v>
@@ -35017,7 +34819,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.542963460626543</v>
+        <v>1.513517188924767</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.575218745468634</v>
@@ -35106,7 +34908,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.553415106539114</v>
+        <v>1.523242247952682</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.756238009175595</v>
@@ -35195,7 +34997,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.540673454793424</v>
+        <v>1.515558130545912</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.935697706952714</v>
@@ -35284,7 +35086,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.553253533358117</v>
+        <v>1.528472744979509</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.572742849840778</v>
@@ -35373,7 +35175,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.554112211242711</v>
+        <v>1.530391994068031</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.785648089336866</v>
@@ -35462,7 +35264,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.542767793961033</v>
+        <v>1.520919514195272</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.873224693744746</v>
@@ -35551,7 +35353,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.560442940970162</v>
+        <v>1.533282055332462</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.820229215175377</v>
@@ -35640,7 +35442,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.557349620555567</v>
+        <v>1.527134460024694</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.749698757213164</v>
@@ -35729,7 +35531,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.541879380201586</v>
+        <v>1.516543381085294</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.524421320984163</v>
@@ -35818,7 +35620,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.485334083194477</v>
+        <v>1.470120962438145</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.407849258281851</v>
@@ -35907,7 +35709,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.490630711290549</v>
+        <v>1.476874551673236</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.499716181718097</v>
@@ -35996,7 +35798,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.493454909110473</v>
+        <v>1.478611980525173</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.507923963873913</v>
@@ -36085,7 +35887,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.493455584152962</v>
+        <v>1.477089025086469</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.475860304328764</v>
@@ -36174,7 +35976,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.49059171212238</v>
+        <v>1.478796767308754</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.519358553141538</v>
@@ -36263,7 +36065,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.51041657773742</v>
+        <v>1.500153639619973</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.40288367830997</v>
@@ -36352,7 +36154,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.471121633775729</v>
+        <v>1.465940372489657</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.486745542944861</v>
@@ -36441,7 +36243,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.456171945794089</v>
+        <v>1.450477842268848</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.511274982480769</v>
@@ -36530,7 +36332,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.471372256794606</v>
+        <v>1.459811365471774</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.507763547247816</v>
@@ -36619,7 +36421,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.464683839510935</v>
+        <v>1.452978858396788</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.476860187103799</v>
@@ -36708,7 +36510,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.460382861834645</v>
+        <v>1.452066726806595</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.553182180867508</v>
@@ -36797,7 +36599,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.466941450828205</v>
+        <v>1.456029290776453</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.455475467340105</v>
@@ -36886,7 +36688,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.462434097953075</v>
+        <v>1.454954459250704</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.573756512314342</v>
@@ -36975,7 +36777,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.467667778816009</v>
+        <v>1.465820731425629</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.519877460413063</v>
@@ -37064,7 +36866,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.488159771516133</v>
+        <v>1.483392112670347</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.565283094781898</v>
@@ -37153,7 +36955,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.51419598687771</v>
+        <v>1.507042205848729</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.787027841139827</v>
@@ -37242,7 +37044,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.507966588385154</v>
+        <v>1.499321041204805</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.748751496299567</v>
@@ -37331,7 +37133,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.513240160162978</v>
+        <v>1.506749158890369</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.636496893301139</v>
@@ -37420,7 +37222,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.517374719943498</v>
+        <v>1.512341109898054</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.788533490600813</v>
@@ -37509,7 +37311,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.516885703204589</v>
+        <v>1.506347629630942</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.778173770895289</v>
@@ -37598,7 +37400,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.522188134063681</v>
+        <v>1.504810465087284</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.608917010739958</v>
@@ -37687,7 +37489,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.554006419785521</v>
+        <v>1.542594333222474</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.885164752313015</v>
@@ -37776,7 +37578,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.576053532100921</v>
+        <v>1.563506205569409</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.05664312882581</v>
@@ -37865,7 +37667,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.567182688116224</v>
+        <v>1.555370018874935</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.946029391924823</v>
@@ -37954,7 +37756,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.585049813004582</v>
+        <v>1.570025856915697</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.888030491473167</v>
@@ -38043,7 +37845,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.57792731687171</v>
+        <v>1.566463787225073</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.25752647692397</v>
@@ -38132,7 +37934,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.584070236970757</v>
+        <v>1.572335833921655</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.389329270768673</v>
@@ -38221,7 +38023,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.586487315844056</v>
+        <v>1.576525134860878</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.416661078595825</v>
@@ -38310,7 +38112,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.605074648831732</v>
+        <v>1.593351133432404</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.510309661313877</v>
@@ -38399,7 +38201,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.610032794522654</v>
+        <v>1.591564832829416</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.46922144014029</v>
@@ -38488,7 +38290,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.627758725987336</v>
+        <v>1.611175028550214</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.897221200970149</v>
@@ -38577,7 +38379,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.635367738223716</v>
+        <v>1.619010462503024</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.747513612978356</v>
@@ -38666,7 +38468,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.644555414697714</v>
+        <v>1.633187771928525</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.957962913948008</v>
@@ -38755,7 +38557,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.640457154526136</v>
+        <v>1.629450887172014</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.280422190174515</v>
@@ -38844,7 +38646,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.64471875387924</v>
+        <v>1.637475167688978</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.382334887029278</v>
@@ -38933,7 +38735,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.625480355709336</v>
+        <v>1.631304703307239</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.269562392097717</v>
@@ -39022,7 +38824,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.632157780817875</v>
+        <v>1.634881824889363</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.097563420931702</v>
@@ -39111,7 +38913,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.636298852560506</v>
+        <v>1.637661654465402</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.2902148904317</v>
@@ -39200,7 +39002,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.642394514554486</v>
+        <v>1.642436580909422</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.086285464901609</v>
@@ -39289,7 +39091,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.633289349941968</v>
+        <v>1.635437674096116</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.215372186219234</v>
@@ -39378,7 +39180,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.638251776582254</v>
+        <v>1.638452258177565</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.124261611488724</v>
@@ -39467,7 +39269,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.625576783395418</v>
+        <v>1.628042825018193</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.110856428461964</v>
@@ -39556,7 +39358,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.619530896356946</v>
+        <v>1.620868012640632</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.183948177005381</v>
@@ -39645,7 +39447,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.607512893887701</v>
+        <v>1.613075759850524</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.136618391398755</v>
@@ -39734,7 +39536,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.60101401444858</v>
+        <v>1.600217038962961</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.140133918927443</v>
@@ -39823,7 +39625,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.575023039422293</v>
+        <v>1.579000153096579</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.542640924872401</v>
@@ -39912,7 +39714,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.565577582126928</v>
+        <v>1.566036812586945</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.639556314911462</v>
@@ -40001,7 +39803,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.516326221891146</v>
+        <v>1.523401539265141</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.363933242688678</v>
@@ -40090,7 +39892,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.480329549916196</v>
+        <v>1.489237461453205</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.218221328697228</v>
@@ -40179,7 +39981,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.478642367056777</v>
+        <v>1.48770935958158</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.16861545759643</v>
@@ -40268,7 +40070,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.47598964676478</v>
+        <v>1.480083045990986</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.376254842438461</v>
@@ -40357,7 +40159,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.475180058002724</v>
+        <v>1.478933942646452</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.26424262035078</v>
@@ -40446,7 +40248,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.465426358207173</v>
+        <v>1.472248641968259</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.32354103129241</v>
@@ -40535,7 +40337,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.46470744711814</v>
+        <v>1.47597221964137</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.270054360509654</v>
@@ -40624,7 +40426,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.447620921008197</v>
+        <v>1.461762527664539</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.286930177082594</v>
@@ -40713,7 +40515,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.444421491783291</v>
+        <v>1.455237743124502</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.200264560778365</v>
@@ -40802,7 +40604,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.420948469815392</v>
+        <v>1.43512025474293</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.310938956246373</v>
@@ -40891,7 +40693,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.425496095501503</v>
+        <v>1.440863523330172</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.274677112695076</v>
@@ -40980,7 +40782,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.426382353872312</v>
+        <v>1.44132951646398</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.38755674658902</v>
@@ -41069,7 +40871,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.414664135960107</v>
+        <v>1.43045177258359</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.306597205718932</v>
@@ -41158,7 +40960,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.409431214985211</v>
+        <v>1.421951812557673</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.403714215649447</v>
@@ -41247,7 +41049,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.398895142724448</v>
+        <v>1.415887121191437</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.411263704585422</v>
@@ -41336,7 +41138,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.408699753586235</v>
+        <v>1.420186118474989</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.261615254088036</v>
@@ -41425,7 +41227,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.430375682482587</v>
+        <v>1.44049223444378</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.311879340382339</v>
@@ -41514,7 +41316,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.430521974099035</v>
+        <v>1.44210530608637</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.38422867637263</v>
@@ -41603,7 +41405,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.433808618539062</v>
+        <v>1.449682815535689</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.454914290037367</v>
@@ -41889,7 +41691,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.245094912337197</v>
+        <v>1.247275961210696</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.009171765423486</v>
@@ -41978,7 +41780,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.265149324541756</v>
+        <v>1.266057168242525</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.086057583941485</v>
@@ -42067,7 +41869,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.270348849230361</v>
+        <v>1.273034400526647</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.996815653894445</v>
@@ -42156,7 +41958,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.250481944758972</v>
+        <v>1.254103845317532</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.987540919996607</v>
@@ -42245,7 +42047,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.271165358345231</v>
+        <v>1.273111496535121</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.136042638993509</v>
@@ -42334,7 +42136,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.28188036362834</v>
+        <v>1.283808051098772</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.989469969112628</v>
@@ -42423,7 +42225,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.25392045400541</v>
+        <v>1.255099207512053</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.998784702810565</v>
@@ -42512,7 +42314,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.279832632974661</v>
+        <v>1.274723063570712</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.811821845503096</v>
@@ -42601,7 +42403,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.300760287606203</v>
+        <v>1.298338595047198</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.08187349262545</v>
@@ -42690,7 +42492,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.297025868859946</v>
+        <v>1.294755890853949</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.054349181492106</v>
@@ -42779,7 +42581,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.262736215604884</v>
+        <v>1.261193223226283</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.092177855890238</v>
@@ -42868,7 +42670,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.261003872315769</v>
+        <v>1.260491887689446</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.017774358560772</v>
@@ -42957,7 +42759,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.283274117772379</v>
+        <v>1.282986369400083</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.893027520017384</v>
@@ -43046,7 +42848,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.289179246284427</v>
+        <v>1.286322623434282</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.020467042358225</v>
@@ -43135,7 +42937,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.28552075762495</v>
+        <v>1.28323483483161</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.068161665280502</v>
@@ -43224,7 +43026,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.286430279205709</v>
+        <v>1.287354641056254</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.081979172031691</v>
@@ -43313,7 +43115,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.269857109329575</v>
+        <v>1.271408167471174</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.879543008779925</v>
@@ -43402,7 +43204,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.273066573081736</v>
+        <v>1.276171899799028</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.020053268471446</v>
@@ -43491,7 +43293,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.303487544252619</v>
+        <v>1.303986886366225</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.009566108104132</v>
@@ -43580,7 +43382,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.29517576015669</v>
+        <v>1.294291415253509</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.035638737471328</v>
@@ -43669,7 +43471,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.279487489372301</v>
+        <v>1.283967045474424</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.894750454966094</v>
@@ -43758,7 +43560,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.30669952193863</v>
+        <v>1.310460428511074</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.970349298588088</v>
@@ -43847,7 +43649,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.312349187635598</v>
+        <v>1.320349610397142</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.90654890603594</v>
@@ -43936,7 +43738,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.355222690599325</v>
+        <v>1.362466477859749</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.950694996012552</v>
@@ -44025,7 +43827,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.368503160135652</v>
+        <v>1.368936534091533</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.954275594176529</v>
@@ -44114,7 +43916,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.356778227557276</v>
+        <v>1.364091009528453</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.981426446045763</v>
@@ -44203,7 +44005,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.360665169897708</v>
+        <v>1.369584368370455</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.989512752445515</v>
@@ -44292,7 +44094,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.353229328096421</v>
+        <v>1.361733274363091</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.988018379719068</v>
@@ -44381,7 +44183,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.356541089967408</v>
+        <v>1.363481624439351</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.010386687896135</v>
@@ -44470,7 +44272,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.29494877173722</v>
+        <v>1.301210160924897</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.0690424132304</v>
@@ -44559,7 +44361,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.28601006948578</v>
+        <v>1.294688862340081</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.918044862664565</v>
@@ -44648,7 +44450,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.317570002192047</v>
+        <v>1.33035766091356</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.915017003270196</v>
@@ -44737,7 +44539,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.334666365229515</v>
+        <v>1.34378396370274</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.988635660189966</v>
@@ -44826,7 +44628,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.329863560015744</v>
+        <v>1.339001945308249</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.026247314182375</v>
@@ -44915,7 +44717,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.372520375986694</v>
+        <v>1.377391129139983</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.012474568386335</v>
@@ -45004,7 +44806,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.353767072725283</v>
+        <v>1.354196878414373</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.050226706623936</v>
@@ -45093,7 +44895,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.351933485034261</v>
+        <v>1.341576867263406</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.061691263822746</v>
@@ -45182,7 +44984,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.315093135190193</v>
+        <v>1.321162629992019</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.058241096036796</v>
@@ -45271,7 +45073,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.322096729377928</v>
+        <v>1.323931400979466</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.089495411489216</v>
@@ -45360,7 +45162,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.352421642433143</v>
+        <v>1.351671080094247</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.879358290599406</v>
@@ -45449,7 +45251,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.344782875415703</v>
+        <v>1.344681846903489</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.029317529010422</v>
@@ -45538,7 +45340,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.335056501505278</v>
+        <v>1.333996989177703</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.044518193634708</v>
@@ -45627,7 +45429,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.339367564785374</v>
+        <v>1.340209862557833</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.050550876610404</v>
@@ -45716,7 +45518,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.348526734007461</v>
+        <v>1.340281216740799</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.928521652010888</v>
@@ -45805,7 +45607,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.370708013926377</v>
+        <v>1.368126769005363</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.850540114571129</v>
@@ -45894,7 +45696,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.367554290695074</v>
+        <v>1.366955976538373</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.040806420555843</v>
@@ -45983,7 +45785,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.329672760903604</v>
+        <v>1.326037398988741</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.047351570833918</v>
@@ -46072,7 +45874,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.330515250004554</v>
+        <v>1.329665826402154</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.06939390992552</v>
@@ -46161,7 +45963,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.326047937333029</v>
+        <v>1.325879844043266</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.047784036748865</v>
@@ -46250,7 +46052,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.333943750736813</v>
+        <v>1.332828949275076</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.02287982849877</v>
@@ -46339,7 +46141,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.314760475228751</v>
+        <v>1.314876905989137</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.042925274264432</v>
@@ -46428,7 +46230,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.338408111212834</v>
+        <v>1.332911622412703</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.937814051659119</v>
@@ -46517,7 +46319,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.324157122984149</v>
+        <v>1.307748095717288</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.913052600067615</v>
@@ -46606,7 +46408,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.288726570477584</v>
+        <v>1.288630488664963</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.886833104271529</v>
@@ -46695,7 +46497,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.251008975390669</v>
+        <v>1.253662782767053</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.87780309990317</v>
@@ -46784,7 +46586,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.267519638513754</v>
+        <v>1.27250227252644</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.850146270986548</v>
@@ -46873,7 +46675,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.273932128798483</v>
+        <v>1.279829027374043</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.892241972133283</v>
@@ -46962,7 +46764,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.271114675048447</v>
+        <v>1.269102898692628</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.885748619326749</v>
@@ -47051,7 +46853,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.293733682102474</v>
+        <v>1.29844301843178</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.8188516377803</v>
@@ -47140,7 +46942,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.27746361958639</v>
+        <v>1.282128746280765</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.960608880409617</v>
@@ -47229,7 +47031,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.286647042711439</v>
+        <v>1.292959465227251</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.856594000654161</v>
@@ -47318,7 +47120,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.309840160756157</v>
+        <v>1.318701386623472</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.878948796872883</v>
@@ -47407,7 +47209,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.295304129428022</v>
+        <v>1.294824922453514</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.908822370064518</v>
@@ -47496,7 +47298,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.261439223547898</v>
+        <v>1.267924301951517</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.941914713130645</v>
@@ -47585,7 +47387,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.196698983820708</v>
+        <v>1.189119489105397</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.525463959002513</v>
@@ -47674,7 +47476,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.188061028288493</v>
+        <v>1.180217099328165</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.548163521352265</v>
@@ -47763,7 +47565,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.15910585452147</v>
+        <v>1.148190113953576</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.608455272205235</v>
@@ -47852,7 +47654,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.162041582392753</v>
+        <v>1.15283041778903</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.581551458078541</v>
@@ -47941,7 +47743,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.162492340481212</v>
+        <v>1.152711799063525</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.60937536510753</v>
@@ -48030,7 +47832,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.179389307986954</v>
+        <v>1.171451278803523</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.629619007331862</v>
@@ -48119,7 +47921,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.180293821784355</v>
+        <v>1.173274201400338</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.654982010569885</v>
@@ -48208,7 +48010,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.174183313506802</v>
+        <v>1.168879815793614</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.654716295009229</v>
@@ -48297,7 +48099,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.171157244418827</v>
+        <v>1.166856731024004</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.65395644676131</v>
@@ -48386,7 +48188,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.171769539515404</v>
+        <v>1.166094810161175</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.667695251012248</v>
@@ -48475,7 +48277,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.182525986703585</v>
+        <v>1.178454005808775</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.662431149835446</v>
@@ -48564,7 +48366,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.189035310771267</v>
+        <v>1.185613021600275</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.662201978804184</v>
